--- a/public/uploads/data.xlsx
+++ b/public/uploads/data.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Proffesors" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Lessons" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ProffesorLessons" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Slots" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="slots" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="lessons" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="proffesorLessons" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="classes" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,45 +14,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>حسین امیرخانی</t>
-  </si>
-  <si>
-    <t>مرتضی زارع</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+  <si>
+    <t>نام استاد</t>
+  </si>
+  <si>
+    <t>شنبه</t>
+  </si>
+  <si>
+    <t>یکشنبه</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t>سه شنبه</t>
+  </si>
+  <si>
+    <t>چهارشنبه</t>
+  </si>
+  <si>
+    <t>دکتر حسین امیرخانی</t>
+  </si>
+  <si>
+    <t>دکتر امیرلکی زاده</t>
+  </si>
+  <si>
+    <t>دکتر یعقوب فرجامی</t>
+  </si>
+  <si>
+    <t>دکتر روح الله دیانت</t>
+  </si>
+  <si>
+    <t>دکتر خیرالله رهسپارفرد</t>
+  </si>
+  <si>
+    <t>دکتر محسن نیک رای</t>
+  </si>
+  <si>
+    <t>دکتر امیر جلالی بیگدلی</t>
+  </si>
+  <si>
+    <t>نام درس</t>
+  </si>
+  <si>
+    <t>ورودی ۹۶</t>
+  </si>
+  <si>
+    <t>ورودی ۹۷</t>
+  </si>
+  <si>
+    <t>ورودی ۹۸</t>
+  </si>
+  <si>
+    <t>ورودی ۹۹</t>
+  </si>
+  <si>
+    <t>ارشد ۱</t>
+  </si>
+  <si>
+    <t>ارشد ۲</t>
+  </si>
+  <si>
+    <t>گسسته</t>
+  </si>
+  <si>
+    <t>طراحی الگوریتم</t>
   </si>
   <si>
     <t>ساختمان داده</t>
   </si>
   <si>
-    <t>طراحی الگوریتم</t>
-  </si>
-  <si>
-    <t>پایگاه داده</t>
+    <t>داده کاوی</t>
+  </si>
+  <si>
+    <t>بازیابی اطلاعات</t>
+  </si>
+  <si>
+    <t>هوش مصنوعی</t>
+  </si>
+  <si>
+    <t>مدیریت سیستم های اطلاعت</t>
+  </si>
+  <si>
+    <t>شبکه</t>
+  </si>
+  <si>
+    <t>درس</t>
+  </si>
+  <si>
+    <t>کلاس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,17 +153,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -298,24 +402,191 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -329,41 +600,237 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>25.0</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25.0</v>
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>35.0</v>
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -377,41 +844,107 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.0</v>
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.0</v>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -425,59 +958,107 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1.6023384E9</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1.6022592E9</v>
-      </c>
-      <c r="E1" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="B2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.6023384E9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.6022592E9</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="B3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.6023984E9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.6024084E9</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/data.xlsx
+++ b/public/uploads/data.xlsx
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -118,12 +118,8 @@
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -153,29 +149,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -428,164 +415,164 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="B5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="B6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="B7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -629,207 +616,207 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
         <v>20.0</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>10.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>10.0</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="D3" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
         <v>20.0</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="D4" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>20.0</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="C5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="B6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="3">
         <v>10.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="3">
         <v>10.0</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="D8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5.0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5.0</v>
       </c>
-      <c r="D9" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="D9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -884,66 +871,66 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -972,92 +959,92 @@
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>8.0</v>
       </c>
     </row>

--- a/public/uploads/data.xlsx
+++ b/public/uploads/data.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="lessons" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="proffesorLessons" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="classes" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="result" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>نام استاد</t>
   </si>
@@ -37,15 +38,39 @@
     <t>دکتر حسین امیرخانی</t>
   </si>
   <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
     <t>دکتر امیرلکی زاده</t>
   </si>
   <si>
+    <t>1,0,1,0</t>
+  </si>
+  <si>
+    <t>1,1,1,0</t>
+  </si>
+  <si>
     <t>دکتر یعقوب فرجامی</t>
   </si>
   <si>
+    <t>1,1,0,1</t>
+  </si>
+  <si>
     <t>دکتر روح الله دیانت</t>
   </si>
   <si>
+    <t>1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,0</t>
+  </si>
+  <si>
     <t>دکتر خیرالله رهسپارفرد</t>
   </si>
   <si>
@@ -103,7 +128,64 @@
     <t>درس</t>
   </si>
   <si>
-    <t>کلاس</t>
+    <t>کلاس ۱</t>
+  </si>
+  <si>
+    <t>کلاس ۲</t>
+  </si>
+  <si>
+    <t>کلاس ۳</t>
+  </si>
+  <si>
+    <t>کلاس ۴</t>
+  </si>
+  <si>
+    <t>کلاس ۵</t>
+  </si>
+  <si>
+    <t>کلاس ۶</t>
+  </si>
+  <si>
+    <t>روز هفته</t>
+  </si>
+  <si>
+    <t>۸ تا ۱۰</t>
+  </si>
+  <si>
+    <t>۱۰ تا ۱۲</t>
+  </si>
+  <si>
+    <t>۱۴ تا ۱۶</t>
+  </si>
+  <si>
+    <t>۱۶ تا ۱۸</t>
+  </si>
+  <si>
+    <t>دکتر حسین امیرخانی - داده کاوی - کلاس 4</t>
+  </si>
+  <si>
+    <t>دکتر حسین امیرخانی - بازیابی اطلاعات - کلاس 5</t>
+  </si>
+  <si>
+    <t>دکتر حسین امیرخانی - هوش مصنوعی - کلاس 6</t>
+  </si>
+  <si>
+    <t>دکتر یعقوب فرجامی - مدیریت سیستم های اطلاعت - کلاس 7</t>
+  </si>
+  <si>
+    <t>دکتر امیرلکی زاده - طراحی الگوریتم - کلاس 2</t>
+  </si>
+  <si>
+    <t>دکتر امیرلکی زاده - ساختمان داده - کلاس 3</t>
+  </si>
+  <si>
+    <t>دکتر خیرالله رهسپارفرد - گسسته - کلاس 1</t>
+  </si>
+  <si>
+    <t>دکتر محسن نیک رای - شبکه - کلاس 8</t>
+  </si>
+  <si>
+    <t>سه‌شنبه</t>
   </si>
 </sst>
 </file>
@@ -186,6 +268,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -440,141 +526,144 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.0</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.0</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.0</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.0</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.0</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -596,25 +685,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -638,7 +727,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>10.0</v>
@@ -661,7 +750,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>10.0</v>
@@ -684,7 +773,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -707,7 +796,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>20.0</v>
@@ -730,7 +819,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
         <v>0.0</v>
@@ -753,7 +842,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>0.0</v>
@@ -776,7 +865,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -799,7 +888,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>5.0</v>
@@ -843,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -872,26 +961,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -907,15 +996,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -923,15 +1012,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -954,16 +1043,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -986,66 +1085,267 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
-        <v>5.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
-        <v>6.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
-        <v>7.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
-        <v>8.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/data.xlsx
+++ b/public/uploads/data.xlsx
@@ -7,7 +7,8 @@
     <sheet state="visible" name="lessons" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="proffesorLessons" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="classes" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="result" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="interference" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="result" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>نام استاد</t>
   </si>
@@ -83,6 +84,9 @@
     <t>نام درس</t>
   </si>
   <si>
+    <t>سال</t>
+  </si>
+  <si>
     <t>ورودی ۹۶</t>
   </si>
   <si>
@@ -144,6 +148,12 @@
   </si>
   <si>
     <t>کلاس ۶</t>
+  </si>
+  <si>
+    <t>درس ۱</t>
+  </si>
+  <si>
+    <t>درس ۲</t>
   </si>
   <si>
     <t>روز هفته</t>
@@ -192,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -206,6 +216,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -231,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -244,7 +258,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -272,6 +299,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -687,7 +718,7 @@
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -705,7 +736,9 @@
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -724,86 +757,96 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5">
+        <v>96.0</v>
+      </c>
+      <c r="C2" s="3">
         <v>10.0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
       <c r="D2" s="3">
         <v>0.0</v>
       </c>
       <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
         <v>20.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.0</v>
-      </c>
       <c r="G2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3">
-        <v>10.0</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>96.0</v>
       </c>
       <c r="C3" s="3">
         <v>10.0</v>
       </c>
       <c r="D3" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="E3" s="3">
         <v>5.0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
       <c r="F3" s="3">
         <v>0.0</v>
       </c>
       <c r="G3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>97.0</v>
       </c>
       <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
         <v>20.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>5.0</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.0</v>
-      </c>
       <c r="F4" s="3">
         <v>0.0</v>
       </c>
       <c r="G4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>96.0</v>
+      </c>
+      <c r="C5" s="3">
         <v>20.0</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.0</v>
-      </c>
       <c r="D5" s="3">
         <v>0.0</v>
       </c>
@@ -814,22 +857,25 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.0</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>96.0</v>
       </c>
       <c r="C6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="3">
         <v>15.0</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.0</v>
-      </c>
       <c r="E6" s="3">
         <v>0.0</v>
       </c>
@@ -837,45 +883,51 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.0</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>98.0</v>
       </c>
       <c r="C7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="3">
         <v>10.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>3.0</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.0</v>
-      </c>
       <c r="F7" s="3">
         <v>0.0</v>
       </c>
       <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.0</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>97.0</v>
       </c>
       <c r="C8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="3">
         <v>10.0</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
       <c r="E8" s="3">
         <v>0.0</v>
       </c>
@@ -883,29 +935,35 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5.0</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>98.0</v>
       </c>
       <c r="C9" s="3">
         <v>5.0</v>
       </c>
       <c r="D9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="3">
         <v>3.0</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.0</v>
-      </c>
       <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -964,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -972,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -980,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -988,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -996,15 +1054,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1043,25 +1101,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1085,7 +1143,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3">
         <v>1.0</v>
@@ -1108,7 +1166,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
@@ -1131,7 +1189,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>1.0</v>
@@ -1145,7 +1203,7 @@
       <c r="E4" s="3">
         <v>1.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>0.0</v>
       </c>
       <c r="G4" s="3">
@@ -1154,7 +1212,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>1.0</v>
@@ -1177,7 +1235,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
         <v>1.0</v>
@@ -1200,7 +1258,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>1.0</v>
@@ -1223,7 +1281,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>1.0</v>
@@ -1246,7 +1304,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -1273,6 +1331,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1284,19 +1400,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1304,16 +1420,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1321,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1332,15 +1448,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">

--- a/public/uploads/data.xlsx
+++ b/public/uploads/data.xlsx
@@ -6,9 +6,8 @@
     <sheet state="visible" name="slots" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="lessons" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="proffesorLessons" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="classes" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="interference" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="result" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="interference" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="result" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>نام استاد</t>
   </si>
@@ -129,27 +128,6 @@
     <t>شبکه</t>
   </si>
   <si>
-    <t>درس</t>
-  </si>
-  <si>
-    <t>کلاس ۱</t>
-  </si>
-  <si>
-    <t>کلاس ۲</t>
-  </si>
-  <si>
-    <t>کلاس ۳</t>
-  </si>
-  <si>
-    <t>کلاس ۴</t>
-  </si>
-  <si>
-    <t>کلاس ۵</t>
-  </si>
-  <si>
-    <t>کلاس ۶</t>
-  </si>
-  <si>
     <t>درس ۱</t>
   </si>
   <si>
@@ -196,6 +174,27 @@
   </si>
   <si>
     <t>سه‌شنبه</t>
+  </si>
+  <si>
+    <t>اضافه کردن چند سال به این قسمت</t>
+  </si>
+  <si>
+    <t>اکسپورت گرفتن</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>نمایش همه ورودی ها یکجا</t>
+  </si>
+  <si>
+    <t>حذف کلاس ها</t>
+  </si>
+  <si>
+    <t>اضافه کردن دکمه ران کردن در صفحه اول</t>
+  </si>
+  <si>
+    <t>اضافه کردن ران کردن مجدد از صفحه برنامه ها</t>
   </si>
 </sst>
 </file>
@@ -216,13 +215,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
     <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -258,22 +257,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -299,10 +295,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -718,7 +710,7 @@
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -763,7 +755,7 @@
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>96.0</v>
       </c>
       <c r="C2" s="3">
@@ -789,7 +781,7 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>96.0</v>
       </c>
       <c r="C3" s="3">
@@ -815,7 +807,7 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>97.0</v>
       </c>
       <c r="C4" s="3">
@@ -841,7 +833,7 @@
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>96.0</v>
       </c>
       <c r="C5" s="3">
@@ -867,7 +859,7 @@
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>96.0</v>
       </c>
       <c r="C6" s="3">
@@ -893,7 +885,7 @@
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>98.0</v>
       </c>
       <c r="C7" s="3">
@@ -919,7 +911,7 @@
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>97.0</v>
       </c>
       <c r="C8" s="3">
@@ -945,7 +937,7 @@
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>98.0</v>
       </c>
       <c r="C9" s="3">
@@ -966,6 +958,28 @@
       <c r="H9" s="3">
         <v>0.0</v>
       </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1100,255 +1114,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1376,7 +1146,7 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1388,7 +1158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1400,19 +1170,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1420,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1437,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1448,20 +1218,62 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/data.xlsx
+++ b/public/uploads/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>نام استاد</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>گسسته</t>
+  </si>
+  <si>
+    <t>96,97</t>
   </si>
   <si>
     <t>طراحی الگوریتم</t>
@@ -755,8 +758,8 @@
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3">
-        <v>96.0</v>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>10.0</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3">
         <v>96.0</v>
@@ -805,7 +808,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>97.0</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>96.0</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>96.0</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3">
         <v>98.0</v>
@@ -909,7 +912,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3">
         <v>97.0</v>
@@ -935,7 +938,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>98.0</v>
@@ -960,26 +963,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1044,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1052,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1076,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1092,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1118,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1147,10 +1150,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1170,19 +1173,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1190,16 +1193,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1207,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1218,15 +1221,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1236,44 +1239,45 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
